--- a/Rest_API/URI.xlsx
+++ b/Rest_API/URI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHRic\OneDrive\programmieren\angular\TinfProjekt\TinfProjektIoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\visual studio\Rest_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505632A5-1B31-47C3-954E-5124A95CB865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21133F3-1FED-40E4-AA04-6CD22E9310BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32620" windowHeight="21220" xr2:uid="{42269D87-41CD-402B-9456-B8EF9590AA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{42269D87-41CD-402B-9456-B8EF9590AA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,15 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -644,7 +647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -670,7 +673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -702,7 +705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -737,7 +740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -772,72 +775,72 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>29</v>
       </c>
